--- a/data/trans_dic/P25A$molestias-Dificultad-trans_dic.xlsx
+++ b/data/trans_dic/P25A$molestias-Dificultad-trans_dic.xlsx
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.1390226121073558</v>
+        <v>0.1454434695533682</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.04920448720729859</v>
+        <v>0.05067735433492269</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.1158992955270198</v>
+        <v>0.1128173216275345</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.1032576699295294</v>
+        <v>0.113782262815823</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.008661208568030834</v>
+        <v>0.008655108839673452</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.09983325732357275</v>
+        <v>0.09698809238908011</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.1434398302499232</v>
+        <v>0.145853664799379</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.03916237912350824</v>
+        <v>0.03823090792687968</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.1224137230993902</v>
+        <v>0.1213338558358077</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.2796761082671875</v>
+        <v>0.2872346035159062</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.1277468507131967</v>
+        <v>0.1236513413976814</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.224049023387355</v>
+        <v>0.2257804393811624</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.3294773408491144</v>
+        <v>0.3248637261930866</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.07162712292231718</v>
+        <v>0.07209724490268703</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.2581809943953305</v>
+        <v>0.2559347435142009</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.2712153653607197</v>
+        <v>0.2711138144923657</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.09303129275270636</v>
+        <v>0.09172096242402052</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.2164096446608874</v>
+        <v>0.2117899327578426</v>
       </c>
     </row>
     <row r="7">
@@ -784,31 +784,31 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.1458954300728675</v>
+        <v>0.148254115563954</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.05472133621533984</v>
+        <v>0.05270764910512985</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.1153920010361552</v>
+        <v>0.1108325934233829</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.08450847558580549</v>
+        <v>0.08318485836504161</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.04838905404808773</v>
+        <v>0.04633204181182057</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.07318519322337731</v>
+        <v>0.07198860642517442</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.1482403762057366</v>
+        <v>0.1474087236248824</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.06026863587570903</v>
+        <v>0.06192934581681291</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.1073188703921611</v>
+        <v>0.1108069006813676</v>
       </c>
     </row>
     <row r="9">
@@ -819,31 +819,31 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.2636328742629109</v>
+        <v>0.2613583309012652</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.1204804496302677</v>
+        <v>0.1256885182201507</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.2375376454026472</v>
+        <v>0.2318053695006813</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.254059156964716</v>
+        <v>0.2519570453488159</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.1578627024628679</v>
+        <v>0.1517372025158569</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.2170461624144191</v>
+        <v>0.2059044928184179</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.2389016397157314</v>
+        <v>0.2424057484013465</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.1155358433132807</v>
+        <v>0.1185324889808112</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.1999393105409564</v>
+        <v>0.1980255502552336</v>
       </c>
     </row>
     <row r="10">
@@ -893,31 +893,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.1153626771047771</v>
+        <v>0.1132819611308849</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.09493771675317597</v>
+        <v>0.1030534336285262</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.09617610057826363</v>
+        <v>0.09176716550141556</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.03268823916990544</v>
+        <v>0.03449625373750725</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.07769067362143493</v>
+        <v>0.07954494770370267</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.05018460326547197</v>
+        <v>0.05063631497230656</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.0981858277263611</v>
+        <v>0.0956159755717734</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.1057316553290298</v>
+        <v>0.1059137213122458</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.0887719308049478</v>
+        <v>0.0921061940295571</v>
       </c>
     </row>
     <row r="12">
@@ -928,31 +928,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.2072884142598914</v>
+        <v>0.2138021639684548</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.1968578904583654</v>
+        <v>0.2082792444400795</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.2102997069148927</v>
+        <v>0.217080486048784</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.1487168042141412</v>
+        <v>0.1530912430558176</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.2324046029924902</v>
+        <v>0.2398204840243577</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.1971624250787078</v>
+        <v>0.1911851929615302</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.1752931533056882</v>
+        <v>0.1723921361860847</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.1941908734313144</v>
+        <v>0.1872555030306342</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.1837025658544109</v>
+        <v>0.1818694145591729</v>
       </c>
     </row>
     <row r="13">
@@ -1002,31 +1002,31 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.1432584467445157</v>
+        <v>0.1376305743747662</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.06187875264479564</v>
+        <v>0.06458894331640826</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.08126295246561541</v>
+        <v>0.08851028637589363</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.1086851657643186</v>
+        <v>0.08770273707713173</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.03561795091693504</v>
+        <v>0.03643384806856347</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.06785567563989466</v>
+        <v>0.0661642829221241</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.1430965501663483</v>
+        <v>0.1510335139092765</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.07030926123577197</v>
+        <v>0.06687639374499456</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.09688735024981181</v>
+        <v>0.1003596971498983</v>
       </c>
     </row>
     <row r="15">
@@ -1037,31 +1037,31 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.3347856866828419</v>
+        <v>0.3299836712039204</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.2020916754567404</v>
+        <v>0.2096618137313372</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.2325041456988565</v>
+        <v>0.2334082452822593</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.3698542556593462</v>
+        <v>0.3517658561252452</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.270696289867731</v>
+        <v>0.2809319844432738</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.2471326091048834</v>
+        <v>0.2392297096951414</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.3069496074905307</v>
+        <v>0.2996685263477983</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.1894396628297902</v>
+        <v>0.1909164619549754</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.2053193326725606</v>
+        <v>0.2146395398270957</v>
       </c>
     </row>
     <row r="16">
@@ -1111,31 +1111,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.1589120270595899</v>
+        <v>0.1586468942423454</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.08548006343850111</v>
+        <v>0.08598834473010637</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.1283937902262921</v>
+        <v>0.1271251344725056</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.1073471746395698</v>
+        <v>0.1058253156012975</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.06052492962284588</v>
+        <v>0.06215700625974524</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.1000695079928878</v>
+        <v>0.09763909680143669</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.1535391493277366</v>
+        <v>0.1549202158771062</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.08227635603518013</v>
+        <v>0.08272934861358336</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.1270360130493057</v>
+        <v>0.1264050501197189</v>
       </c>
     </row>
     <row r="18">
@@ -1146,31 +1146,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.2205063071097356</v>
+        <v>0.2207391325610814</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.1318359263353334</v>
+        <v>0.1327645193279325</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.1873233611423687</v>
+        <v>0.1870402186711956</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.1942656546998494</v>
+        <v>0.1933150783994969</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.126490713306777</v>
+        <v>0.1268211477438107</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.1767092714180075</v>
+        <v>0.179005631623026</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.203970020864188</v>
+        <v>0.2047785878714468</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.1202768187469618</v>
+        <v>0.1209218817560263</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.1736479434640528</v>
+        <v>0.1734767119279279</v>
       </c>
     </row>
     <row r="19">
@@ -1399,31 +1399,31 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>17441</v>
+        <v>18247</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>10508</v>
+        <v>10823</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>20897</v>
+        <v>20341</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>5345</v>
+        <v>5890</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>9243</v>
+        <v>8979</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>25421</v>
+        <v>25849</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>12798</v>
+        <v>12493</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>33405</v>
+        <v>33110</v>
       </c>
     </row>
     <row r="7">
@@ -1434,31 +1434,31 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>35087</v>
+        <v>36035</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>27282</v>
+        <v>26407</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>40396</v>
+        <v>40708</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>17056</v>
+        <v>16817</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>8110</v>
+        <v>8163</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>23903</v>
+        <v>23695</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>48066</v>
+        <v>48048</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>30402</v>
+        <v>29973</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>59054</v>
+        <v>57794</v>
       </c>
     </row>
     <row r="8">
@@ -1543,31 +1543,31 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>28734</v>
+        <v>29198</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>14077</v>
+        <v>13559</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>18635</v>
+        <v>17899</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>5955</v>
+        <v>5862</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>6093</v>
+        <v>5834</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>6806</v>
+        <v>6695</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>39641</v>
+        <v>39419</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>23093</v>
+        <v>23729</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>27311</v>
+        <v>28199</v>
       </c>
     </row>
     <row r="11">
@@ -1578,31 +1578,31 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>51922</v>
+        <v>51474</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>30993</v>
+        <v>32332</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>38361</v>
+        <v>37435</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>17903</v>
+        <v>17754</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>19878</v>
+        <v>19107</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>20184</v>
+        <v>19148</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>63885</v>
+        <v>64822</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>44269</v>
+        <v>45417</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>50882</v>
+        <v>50395</v>
       </c>
     </row>
     <row r="12">
@@ -1687,31 +1687,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>25151</v>
+        <v>24697</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>22342</v>
+        <v>24252</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>14941</v>
+        <v>14256</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>2832</v>
+        <v>2989</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>7596</v>
+        <v>7777</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>4070</v>
+        <v>4107</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>29913</v>
+        <v>29130</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>35220</v>
+        <v>35280</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>20991</v>
+        <v>21780</v>
       </c>
     </row>
     <row r="15">
@@ -1722,31 +1722,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>45192</v>
+        <v>46612</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>46327</v>
+        <v>49015</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>32671</v>
+        <v>33724</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>12885</v>
+        <v>13264</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>22722</v>
+        <v>23447</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>15992</v>
+        <v>15507</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>53404</v>
+        <v>52520</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>64686</v>
+        <v>62376</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>43439</v>
+        <v>43005</v>
       </c>
     </row>
     <row r="16">
@@ -1831,31 +1831,31 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>11153</v>
+        <v>10714</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>6416</v>
+        <v>6697</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>8426</v>
+        <v>9177</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>3877</v>
+        <v>3129</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>1735</v>
+        <v>1775</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>4488</v>
+        <v>4376</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>16244</v>
+        <v>17145</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>10715</v>
+        <v>10192</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>16454</v>
+        <v>17043</v>
       </c>
     </row>
     <row r="19">
@@ -1866,31 +1866,31 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>26063</v>
+        <v>25689</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>20954</v>
+        <v>21739</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>24106</v>
+        <v>24200</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>13193</v>
+        <v>12548</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>13187</v>
+        <v>13686</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>16345</v>
+        <v>15823</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>34845</v>
+        <v>34019</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>28871</v>
+        <v>29096</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>34868</v>
+        <v>36450</v>
       </c>
     </row>
     <row r="20">
@@ -1975,31 +1975,31 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>98250</v>
+        <v>98086</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>69224</v>
+        <v>69635</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>77143</v>
+        <v>76380</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>26251</v>
+        <v>25879</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>23340</v>
+        <v>23970</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>33306</v>
+        <v>32497</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>132476</v>
+        <v>133667</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>98358</v>
+        <v>98899</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>118608</v>
+        <v>118019</v>
       </c>
     </row>
     <row r="23">
@@ -2010,31 +2010,31 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>136332</v>
+        <v>136476</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>106764</v>
+        <v>107516</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>112549</v>
+        <v>112379</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>47507</v>
+        <v>47274</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>48779</v>
+        <v>48906</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>58813</v>
+        <v>59578</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>175988</v>
+        <v>176686</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>143786</v>
+        <v>144557</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>162127</v>
+        <v>161967</v>
       </c>
     </row>
     <row r="24">
